--- a/Day 2/Aircrafts.xlsx
+++ b/Day 2/Aircrafts.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -390,7 +390,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>579</v>
+        <v>983</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -398,31 +398,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>268</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/Day 2/Aircrafts.xlsx
+++ b/Day 2/Aircrafts.xlsx
@@ -390,7 +390,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>983</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -398,7 +398,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>257</v>
+        <v>937</v>
       </c>
     </row>
   </sheetData>
